--- a/whatsapp/customer_file/customer_info.xlsx
+++ b/whatsapp/customer_file/customer_info.xlsx
@@ -16,12 +16,288 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="94">
   <si>
     <t>email</t>
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>raulaiec1@gmail.com</t>
+  </si>
+  <si>
+    <t>Raul</t>
+  </si>
+  <si>
+    <t>sophias-world@live.co.uk</t>
+  </si>
+  <si>
+    <t>Sophia</t>
+  </si>
+  <si>
+    <t>katsidin@gmail.com</t>
+  </si>
+  <si>
+    <t>Anastasia</t>
+  </si>
+  <si>
+    <t>info@clubmaterials.com</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>81brodie@gmail.com</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>empirecommunicationsllc88@gmail.com</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>ojessika7@gmail.com</t>
+  </si>
+  <si>
+    <t>Jessika</t>
+  </si>
+  <si>
+    <t>erikaclaisse@gmail.com</t>
+  </si>
+  <si>
+    <t>Erika</t>
+  </si>
+  <si>
+    <t>tomazaan@hotmail.com</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>vishan3@hotmail.com</t>
+  </si>
+  <si>
+    <t>Vishan</t>
+  </si>
+  <si>
+    <t>leiohudesigns@gmail.com</t>
+  </si>
+  <si>
+    <t>Chauncy</t>
+  </si>
+  <si>
+    <t>amyshi218@gmail.com</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>shail.piyaraly@gmail.com</t>
+  </si>
+  <si>
+    <t>Shail</t>
+  </si>
+  <si>
+    <t>funkyweaver@yahoo.com</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>kareema16@sbcglobal.net</t>
+  </si>
+  <si>
+    <t>Kay</t>
+  </si>
+  <si>
+    <t>sickstem@gmail.com</t>
+  </si>
+  <si>
+    <t>Filippo</t>
+  </si>
+  <si>
+    <t>deadpoole99@gmail.com</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>goldeneagledesignstudio@gmail.com</t>
+  </si>
+  <si>
+    <t>Isabela</t>
+  </si>
+  <si>
+    <t>therealtmc@icloud.com</t>
+  </si>
+  <si>
+    <t>Antwan</t>
+  </si>
+  <si>
+    <t>fatiha.britel72@gmail.com</t>
+  </si>
+  <si>
+    <t>Fatiha</t>
+  </si>
+  <si>
+    <t>alexbcontacts@gmail.com</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>a2ztaskit@gmail.com</t>
+  </si>
+  <si>
+    <t>Amani</t>
+  </si>
+  <si>
+    <t>danchig@hotmail.co.uk</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>lau_pinilla2@hotmail.com</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>wllmsrls004@gmail.com</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>ddart202@gmail.com</t>
+  </si>
+  <si>
+    <t>godissupremebrand@gmail.com</t>
+  </si>
+  <si>
+    <t>Errick</t>
+  </si>
+  <si>
+    <t>madria@fiercefitgear.com</t>
+  </si>
+  <si>
+    <t>Madria</t>
+  </si>
+  <si>
+    <t>since1991shop@gmail.com</t>
+  </si>
+  <si>
+    <t>Achraf</t>
+  </si>
+  <si>
+    <t>ribeirodiogo735@gmail.com</t>
+  </si>
+  <si>
+    <t>Diogo</t>
+  </si>
+  <si>
+    <t>Mycarnivalaccessories@gmail.com</t>
+  </si>
+  <si>
+    <t>Tawana</t>
+  </si>
+  <si>
+    <t>wylie97@ymail.com</t>
+  </si>
+  <si>
+    <t>Wylie</t>
+  </si>
+  <si>
+    <t>Rarasuave44@gmail.com</t>
+  </si>
+  <si>
+    <t>ch.tasawar@hotmail.com</t>
+  </si>
+  <si>
+    <t>Tasawar</t>
+  </si>
+  <si>
+    <t>rapfashion.nl@gmail.com</t>
+  </si>
+  <si>
+    <t>Ruben</t>
+  </si>
+  <si>
+    <t>yummiqueendom@gmail.com</t>
+  </si>
+  <si>
+    <t>Yabra</t>
+  </si>
+  <si>
+    <t>engnrabdulbasid@gmail.com</t>
+  </si>
+  <si>
+    <t>infolimalama@gmail.com</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>d1313johnson@gmail.com</t>
+  </si>
+  <si>
+    <t>naturalprods@gmail.com</t>
+  </si>
+  <si>
+    <t>Erwan</t>
+  </si>
+  <si>
+    <t>rickard@rickardankarsund.se</t>
+  </si>
+  <si>
+    <t>Rickard</t>
+  </si>
+  <si>
+    <t>g.a.abdula@gmail.com</t>
+  </si>
+  <si>
+    <t>Gassan</t>
+  </si>
+  <si>
+    <t>pstphh@hotmail.com</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>runerasmussen93@gmail.com</t>
+  </si>
+  <si>
+    <t>Marsiellefountain@gmail.com</t>
+  </si>
+  <si>
+    <t>Marsielle</t>
+  </si>
+  <si>
+    <t>razberryberet@yahoo.com</t>
+  </si>
+  <si>
+    <t>Jamagne</t>
+  </si>
+  <si>
+    <t>pixandartstudio@gmail.com</t>
+  </si>
+  <si>
+    <t>Kriszta</t>
+  </si>
+  <si>
+    <t>Ismaygossen@gmail.com</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>rosexproject@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -29,12 +305,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +329,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -64,8 +341,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -80,14 +431,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -95,8 +438,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,14 +470,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,50 +483,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -177,36 +491,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -217,13 +507,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,163 +645,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,34 +701,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -461,11 +733,53 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,30 +798,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -516,10 +806,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,143 +818,149 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -721,7 +1017,14 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1029,7 +1332,7 @@
   <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1046,325 +1349,575 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="2"/>
+      <c r="A42" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
+      <c r="A45" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
+      <c r="A46" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
+      <c r="A47" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
+      <c r="A48" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="2"/>
+      <c r="A50" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="2"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="2"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="1"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="9"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="4"/>
-      <c r="B54" s="2"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="9"/>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="1"/>
-      <c r="B55" s="2"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="9"/>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="1"/>
-      <c r="B56" s="2"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="9"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="1"/>
-      <c r="B57" s="2"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="9"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="1"/>
-      <c r="B58" s="2"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="9"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="1"/>
-      <c r="B59" s="2"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="9"/>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="1"/>
-      <c r="B60" s="2"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="9"/>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="1"/>
-      <c r="B61" s="2"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="9"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="1"/>
-      <c r="B62" s="2"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="9"/>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="1"/>
-      <c r="B63" s="2"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="9"/>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="1"/>
-      <c r="B64" s="2"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="9"/>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="1"/>
-      <c r="B65" s="2"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="9"/>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="1"/>
-      <c r="B66" s="2"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="9"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="1"/>
-      <c r="B67" s="2"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="9"/>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="1"/>
-      <c r="B68" s="2"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="9"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="1"/>
-      <c r="B69" s="2"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="9"/>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="1"/>
-      <c r="B70" s="2"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="9"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="1"/>
-      <c r="B71" s="2"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="9"/>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="1"/>
-      <c r="B72" s="2"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="9"/>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="1"/>
-      <c r="B73" s="2"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="9"/>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="1"/>
-      <c r="B74" s="2"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="9"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="5"/>
-      <c r="B75" s="2"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="9"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="1"/>
-      <c r="B76" s="2"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="9"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="6"/>
-      <c r="B77" s="2"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="9"/>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="6"/>
-      <c r="B78" s="2"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="9"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="7"/>
-      <c r="B79" s="2"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="9"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="5"/>
-      <c r="B80" s="2"/>
+      <c r="A80" s="11"/>
+      <c r="B80" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A80">
+  <conditionalFormatting sqref="A2:A50">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A51:A80">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1" display="erikaclaisse@gmail.com" tooltip="mailto:erikaclaisse@gmail.com"/>
+    <hyperlink ref="A11" r:id="rId2" display="vishan3@hotmail.com" tooltip="mailto:vishan3@hotmail.com"/>
+    <hyperlink ref="A15" r:id="rId3" display="funkyweaver@yahoo.com" tooltip="mailto:funkyweaver@yahoo.com"/>
+    <hyperlink ref="A12" r:id="rId4" display="leiohudesigns@gmail.com" tooltip="mailto:leiohudesigns@gmail.com"/>
+    <hyperlink ref="A16" r:id="rId5" display="kareema16@sbcglobal.net" tooltip="mailto:kareema16@sbcglobal.net"/>
+    <hyperlink ref="A19" r:id="rId6" display="goldeneagledesignstudio@gmail.com" tooltip="mailto:goldeneagledesignstudio@gmail.com"/>
+    <hyperlink ref="A24" r:id="rId7" display="danchig@hotmail.co.uk" tooltip="mailto:danchig@hotmail.co.uk"/>
+    <hyperlink ref="A23" r:id="rId8" display="a2ztaskit@gmail.com" tooltip="mailto:a2ztaskit@gmail.com"/>
+    <hyperlink ref="A21" r:id="rId9" display="fatiha.britel72@gmail.com" tooltip="mailto:fatiha.britel72@gmail.com"/>
+    <hyperlink ref="A26" r:id="rId10" display="wllmsrls004@gmail.com" tooltip="mailto:wllmsrls004@gmail.com"/>
+    <hyperlink ref="A44" r:id="rId11" display="pstphh@hotmail.com" tooltip="mailto:pstphh@hotmail.com"/>
+    <hyperlink ref="A50" r:id="rId12" display="rosexproject@gmail.com" tooltip="mailto:rosexproject@gmail.com"/>
+    <hyperlink ref="A17" r:id="rId13" display="sickstem@gmail.com" tooltip="mailto:sickstem@gmail.com"/>
+    <hyperlink ref="A25" r:id="rId14" display="lau_pinilla2@hotmail.com" tooltip="mailto:lau_pinilla2@hotmail.com"/>
+    <hyperlink ref="A34" r:id="rId15" display="Rarasuave44@gmail.com" tooltip="mailto:Rarasuave44@gmail.com"/>
+    <hyperlink ref="A39" r:id="rId16" display="infolimalama@gmail.com" tooltip="mailto:infolimalama@gmail.com"/>
+    <hyperlink ref="A37" r:id="rId17" display="yummiqueendom@gmail.com" tooltip="mailto:yummiqueendom@gmail.com"/>
+    <hyperlink ref="A43" r:id="rId18" display="g.a.abdula@gmail.com" tooltip="mailto:g.a.abdula@gmail.com"/>
+    <hyperlink ref="A22" r:id="rId19" display="alexbcontacts@gmail.com" tooltip="mailto:alexbcontacts@gmail.com"/>
+    <hyperlink ref="A32" r:id="rId20" display="Mycarnivalaccessories@gmail.com" tooltip="mailto:Mycarnivalaccessories@gmail.com"/>
+    <hyperlink ref="A46" r:id="rId21" display="Marsiellefountain@gmail.com" tooltip="mailto:Marsiellefountain@gmail.com"/>
+    <hyperlink ref="A48" r:id="rId22" display="pixandartstudio@gmail.com"/>
+    <hyperlink ref="A30" r:id="rId23" display="since1991shop@gmail.com" tooltip="mailto:since1991shop@gmail.com"/>
+    <hyperlink ref="A41" r:id="rId24" display="naturalprods@gmail.com" tooltip="mailto:naturalprods@gmail.com"/>
+    <hyperlink ref="A33" r:id="rId25" display="wylie97@ymail.com" tooltip="mailto:wylie97@ymail.com"/>
+    <hyperlink ref="A47" r:id="rId26" display="razberryberet@yahoo.com" tooltip="mailto:razberryberet@yahoo.com"/>
+    <hyperlink ref="A49" r:id="rId27" display="Ismaygossen@gmail.com" tooltip="mailto:Ismaygossen@gmail.com"/>
+    <hyperlink ref="A35" r:id="rId28" display="ch.tasawar@hotmail.com" tooltip="mailto:ch.tasawar@hotmail.com"/>
+    <hyperlink ref="A20" r:id="rId29" display="therealtmc@icloud.com"/>
+    <hyperlink ref="A31" r:id="rId30" display="ribeirodiogo735@gmail.com" tooltip="mailto:ribeirodiogo735@gmail.com"/>
+    <hyperlink ref="A14" r:id="rId31" display="shail.piyaraly@gmail.com" tooltip="mailto:shail.piyaraly@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId32" display="sophias-world@live.co.uk"/>
+    <hyperlink ref="A4" r:id="rId33" display="katsidin@gmail.com"/>
+    <hyperlink ref="A6" r:id="rId34" display="81brodie@gmail.com"/>
+    <hyperlink ref="A7" r:id="rId35" display="empirecommunicationsllc88@gmail.com" tooltip="mailto:empirecommunicationsllc88@gmail.com"/>
+    <hyperlink ref="A8" r:id="rId36" display="ojessika7@gmail.com"/>
+    <hyperlink ref="A10" r:id="rId37" display="tomazaan@hotmail.com"/>
+    <hyperlink ref="A13" r:id="rId38" display="amyshi218@gmail.com" tooltip="mailto:amyshi218@gmail.com"/>
+    <hyperlink ref="A42" r:id="rId39" display="rickard@rickardankarsund.se" tooltip="mailto:rickard@rickardankarsund.se"/>
+    <hyperlink ref="A36" r:id="rId40" display="rapfashion.nl@gmail.com" tooltip="mailto:rapfashion.nl@gmail.com"/>
+    <hyperlink ref="A38" r:id="rId41" display="engnrabdulbasid@gmail.com" tooltip="mailto:engnrabdulbasid@gmail.com"/>
+    <hyperlink ref="A40" r:id="rId42" display="d1313johnson@gmail.com" tooltip="mailto:d1313johnson@gmail.com"/>
+    <hyperlink ref="A45" r:id="rId43" display="runerasmussen93@gmail.com" tooltip="mailto:runerasmussen93@gmail.com"/>
+    <hyperlink ref="A28" r:id="rId44" display="godissupremebrand@gmail.com" tooltip="mailto:godissupremebrand@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId45" display="raulaiec1@gmail.com" tooltip="mailto:raulaiec1@gmail.com"/>
+    <hyperlink ref="A5" r:id="rId46" display="info@clubmaterials.com" tooltip="mailto:info@clubmaterials.com"/>
+    <hyperlink ref="A18" r:id="rId47" display="deadpoole99@gmail.com" tooltip="mailto:deadpoole99@gmail.com"/>
+    <hyperlink ref="A29" r:id="rId48" display="madria@fiercefitgear.com" tooltip="mailto:madria@fiercefitgear.com"/>
+    <hyperlink ref="A27" r:id="rId49" display="ddart202@gmail.com" tooltip="mailto:ddart202@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
